--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mdk-Itga6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mdk-Itga6.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.512729</v>
+        <v>1.988074333333333</v>
       </c>
       <c r="H2">
-        <v>7.538187</v>
+        <v>5.964223</v>
       </c>
       <c r="I2">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907969</v>
       </c>
       <c r="J2">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907968</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>136.6884486666667</v>
+        <v>255.0443116666667</v>
       </c>
       <c r="N2">
-        <v>410.065346</v>
+        <v>765.132935</v>
       </c>
       <c r="O2">
-        <v>0.7423691870207686</v>
+        <v>0.863617428561108</v>
       </c>
       <c r="P2">
-        <v>0.7423691870207685</v>
+        <v>0.8636174285611079</v>
       </c>
       <c r="Q2">
-        <v>343.4610289297446</v>
+        <v>507.0470498871672</v>
       </c>
       <c r="R2">
-        <v>3091.149260367702</v>
+        <v>4563.423448984505</v>
       </c>
       <c r="S2">
-        <v>0.01626327721023487</v>
+        <v>0.01431678813153596</v>
       </c>
       <c r="T2">
-        <v>0.01626327721023487</v>
+        <v>0.01431678813153596</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.512729</v>
+        <v>1.988074333333333</v>
       </c>
       <c r="H3">
-        <v>7.538187</v>
+        <v>5.964223</v>
       </c>
       <c r="I3">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907969</v>
       </c>
       <c r="J3">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907968</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.8952453333333333</v>
+        <v>0.8952453333333334</v>
       </c>
       <c r="N3">
         <v>2.685736</v>
       </c>
       <c r="O3">
-        <v>0.004862170554817893</v>
+        <v>0.003031431940796009</v>
       </c>
       <c r="P3">
-        <v>0.004862170554817892</v>
+        <v>0.003031431940796009</v>
       </c>
       <c r="Q3">
-        <v>2.249508911181333</v>
+        <v>1.779814269236445</v>
       </c>
       <c r="R3">
-        <v>20.245580200632</v>
+        <v>16.018328423128</v>
       </c>
       <c r="S3">
-        <v>0.0001065168503205032</v>
+        <v>5.025416046067718E-05</v>
       </c>
       <c r="T3">
-        <v>0.0001065168503205032</v>
+        <v>5.025416046067717E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.512729</v>
+        <v>1.988074333333333</v>
       </c>
       <c r="H4">
-        <v>7.538187</v>
+        <v>5.964223</v>
       </c>
       <c r="I4">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907969</v>
       </c>
       <c r="J4">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907968</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.903320333333333</v>
+        <v>7.050555333333333</v>
       </c>
       <c r="N4">
-        <v>14.709961</v>
+        <v>21.151666</v>
       </c>
       <c r="O4">
-        <v>0.02663044291647413</v>
+        <v>0.02387421396349043</v>
       </c>
       <c r="P4">
-        <v>0.02663044291647413</v>
+        <v>0.02387421396349043</v>
       </c>
       <c r="Q4">
-        <v>12.32071519785633</v>
+        <v>14.01702809394644</v>
       </c>
       <c r="R4">
-        <v>110.886436780707</v>
+        <v>126.153252845518</v>
       </c>
       <c r="S4">
-        <v>0.000583400123488474</v>
+        <v>0.0003957794873266209</v>
       </c>
       <c r="T4">
-        <v>0.000583400123488474</v>
+        <v>0.0003957794873266208</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.512729</v>
+        <v>1.988074333333333</v>
       </c>
       <c r="H5">
-        <v>7.538187</v>
+        <v>5.964223</v>
       </c>
       <c r="I5">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907969</v>
       </c>
       <c r="J5">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907968</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>41.63761133333333</v>
+        <v>32.33082866666666</v>
       </c>
       <c r="N5">
-        <v>124.912834</v>
+        <v>96.99248599999999</v>
       </c>
       <c r="O5">
-        <v>0.2261381995079395</v>
+        <v>0.1094769255346056</v>
       </c>
       <c r="P5">
-        <v>0.2261381995079395</v>
+        <v>0.1094769255346056</v>
       </c>
       <c r="Q5">
-        <v>104.6240334879953</v>
+        <v>64.27609064759754</v>
       </c>
       <c r="R5">
-        <v>941.616301391958</v>
+        <v>578.4848158283779</v>
       </c>
       <c r="S5">
-        <v>0.004954069067953018</v>
+        <v>0.001814875309756426</v>
       </c>
       <c r="T5">
-        <v>0.004954069067953019</v>
+        <v>0.001814875309756425</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>278.681984</v>
       </c>
       <c r="I6">
-        <v>0.8098976036382196</v>
+        <v>0.7746030815641455</v>
       </c>
       <c r="J6">
-        <v>0.8098976036382197</v>
+        <v>0.7746030815641454</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>136.6884486666667</v>
+        <v>255.0443116666667</v>
       </c>
       <c r="N6">
-        <v>410.065346</v>
+        <v>765.132935</v>
       </c>
       <c r="O6">
-        <v>0.7423691870207686</v>
+        <v>0.863617428561108</v>
       </c>
       <c r="P6">
-        <v>0.7423691870207685</v>
+        <v>0.8636174285611079</v>
       </c>
       <c r="Q6">
-        <v>12697.53602143627</v>
+        <v>23692.08492772701</v>
       </c>
       <c r="R6">
-        <v>114277.8241929265</v>
+        <v>213228.764349543</v>
       </c>
       <c r="S6">
-        <v>0.6012430255829738</v>
+        <v>0.6689607214559375</v>
       </c>
       <c r="T6">
-        <v>0.6012430255829737</v>
+        <v>0.6689607214559373</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>278.681984</v>
       </c>
       <c r="I7">
-        <v>0.8098976036382196</v>
+        <v>0.7746030815641455</v>
       </c>
       <c r="J7">
-        <v>0.8098976036382197</v>
+        <v>0.7746030815641454</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8952453333333333</v>
+        <v>0.8952453333333334</v>
       </c>
       <c r="N7">
         <v>2.685736</v>
       </c>
       <c r="O7">
-        <v>0.004862170554817893</v>
+        <v>0.003031431940796009</v>
       </c>
       <c r="P7">
-        <v>0.004862170554817892</v>
+        <v>0.003031431940796009</v>
       </c>
       <c r="Q7">
         <v>83.1629152200249</v>
       </c>
       <c r="R7">
-        <v>748.4662369802239</v>
+        <v>748.4662369802242</v>
       </c>
       <c r="S7">
-        <v>0.003937860280827325</v>
+        <v>0.002348156522892567</v>
       </c>
       <c r="T7">
-        <v>0.003937860280827324</v>
+        <v>0.002348156522892566</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>278.681984</v>
       </c>
       <c r="I8">
-        <v>0.8098976036382196</v>
+        <v>0.7746030815641455</v>
       </c>
       <c r="J8">
-        <v>0.8098976036382197</v>
+        <v>0.7746030815641454</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.903320333333333</v>
+        <v>7.050555333333333</v>
       </c>
       <c r="N8">
-        <v>14.709961</v>
+        <v>21.151666</v>
       </c>
       <c r="O8">
-        <v>0.02663044291647413</v>
+        <v>0.02387421396349043</v>
       </c>
       <c r="P8">
-        <v>0.02663044291647413</v>
+        <v>0.02387421396349043</v>
       </c>
       <c r="Q8">
-        <v>455.4890128936249</v>
+        <v>654.9542495317048</v>
       </c>
       <c r="R8">
-        <v>4099.401116042624</v>
+        <v>5894.588245785344</v>
       </c>
       <c r="S8">
-        <v>0.0215679319018768</v>
+        <v>0.01849303970604144</v>
       </c>
       <c r="T8">
-        <v>0.0215679319018768</v>
+        <v>0.01849303970604143</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>278.681984</v>
       </c>
       <c r="I9">
-        <v>0.8098976036382196</v>
+        <v>0.7746030815641455</v>
       </c>
       <c r="J9">
-        <v>0.8098976036382197</v>
+        <v>0.7746030815641454</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>41.63761133333333</v>
+        <v>32.33082866666666</v>
       </c>
       <c r="N9">
-        <v>124.912834</v>
+        <v>96.99248599999999</v>
       </c>
       <c r="O9">
-        <v>0.2261381995079395</v>
+        <v>0.1094769255346056</v>
       </c>
       <c r="P9">
-        <v>0.2261381995079395</v>
+        <v>0.1094769255346056</v>
       </c>
       <c r="Q9">
-        <v>3867.884045131406</v>
+        <v>3003.339825730247</v>
       </c>
       <c r="R9">
-        <v>34810.95640618266</v>
+        <v>27030.05843157222</v>
       </c>
       <c r="S9">
-        <v>0.1831487858725418</v>
+        <v>0.08480116387927401</v>
       </c>
       <c r="T9">
-        <v>0.1831487858725418</v>
+        <v>0.08480116387927399</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.68108066666667</v>
+        <v>23.741365</v>
       </c>
       <c r="H10">
-        <v>53.04324200000001</v>
+        <v>71.22409500000001</v>
       </c>
       <c r="I10">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="J10">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>136.6884486666667</v>
+        <v>255.0443116666667</v>
       </c>
       <c r="N10">
-        <v>410.065346</v>
+        <v>765.132935</v>
       </c>
       <c r="O10">
-        <v>0.7423691870207686</v>
+        <v>0.863617428561108</v>
       </c>
       <c r="P10">
-        <v>0.7423691870207685</v>
+        <v>0.8636174285611079</v>
       </c>
       <c r="Q10">
-        <v>2416.799487076859</v>
+        <v>6055.100094452092</v>
       </c>
       <c r="R10">
-        <v>21751.19538369173</v>
+        <v>54495.90085006883</v>
       </c>
       <c r="S10">
-        <v>0.1144382526959829</v>
+        <v>0.1709695090165794</v>
       </c>
       <c r="T10">
-        <v>0.1144382526959829</v>
+        <v>0.1709695090165793</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.68108066666667</v>
+        <v>23.741365</v>
       </c>
       <c r="H11">
-        <v>53.04324200000001</v>
+        <v>71.22409500000001</v>
       </c>
       <c r="I11">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="J11">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.8952453333333333</v>
+        <v>0.8952453333333334</v>
       </c>
       <c r="N11">
         <v>2.685736</v>
       </c>
       <c r="O11">
-        <v>0.004862170554817893</v>
+        <v>0.003031431940796009</v>
       </c>
       <c r="P11">
-        <v>0.004862170554817892</v>
+        <v>0.003031431940796009</v>
       </c>
       <c r="Q11">
-        <v>15.82890495512356</v>
+        <v>21.25434622321334</v>
       </c>
       <c r="R11">
-        <v>142.460144596112</v>
+        <v>191.28911600892</v>
       </c>
       <c r="S11">
-        <v>0.0007495169685533449</v>
+        <v>0.0006001296562513701</v>
       </c>
       <c r="T11">
-        <v>0.0007495169685533447</v>
+        <v>0.0006001296562513701</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.68108066666667</v>
+        <v>23.741365</v>
       </c>
       <c r="H12">
-        <v>53.04324200000001</v>
+        <v>71.22409500000001</v>
       </c>
       <c r="I12">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="J12">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.903320333333333</v>
+        <v>7.050555333333333</v>
       </c>
       <c r="N12">
-        <v>14.709961</v>
+        <v>21.151666</v>
       </c>
       <c r="O12">
-        <v>0.02663044291647413</v>
+        <v>0.02387421396349043</v>
       </c>
       <c r="P12">
-        <v>0.02663044291647413</v>
+        <v>0.02387421396349043</v>
       </c>
       <c r="Q12">
-        <v>86.69600234817356</v>
+        <v>167.3898076213633</v>
       </c>
       <c r="R12">
-        <v>780.2640211335621</v>
+        <v>1506.50826859227</v>
       </c>
       <c r="S12">
-        <v>0.004105156045217374</v>
+        <v>0.004726355101813354</v>
       </c>
       <c r="T12">
-        <v>0.004105156045217374</v>
+        <v>0.004726355101813354</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.68108066666667</v>
+        <v>23.741365</v>
       </c>
       <c r="H13">
-        <v>53.04324200000001</v>
+        <v>71.22409500000001</v>
       </c>
       <c r="I13">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="J13">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>41.63761133333333</v>
+        <v>32.33082866666666</v>
       </c>
       <c r="N13">
-        <v>124.912834</v>
+        <v>96.99248599999999</v>
       </c>
       <c r="O13">
-        <v>0.2261381995079395</v>
+        <v>0.1094769255346056</v>
       </c>
       <c r="P13">
-        <v>0.2261381995079395</v>
+        <v>0.1094769255346056</v>
       </c>
       <c r="Q13">
-        <v>736.197964751981</v>
+        <v>767.5780041277966</v>
       </c>
       <c r="R13">
-        <v>6625.781682767829</v>
+        <v>6908.202037150169</v>
       </c>
       <c r="S13">
-        <v>0.03485982563926134</v>
+        <v>0.02167304131237985</v>
       </c>
       <c r="T13">
-        <v>0.03485982563926134</v>
+        <v>0.02167304131237985</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.610639333333333</v>
+        <v>1.301204666666667</v>
       </c>
       <c r="H14">
-        <v>4.831917999999999</v>
+        <v>3.903614</v>
       </c>
       <c r="I14">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="J14">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>136.6884486666667</v>
+        <v>255.0443116666667</v>
       </c>
       <c r="N14">
-        <v>410.065346</v>
+        <v>765.132935</v>
       </c>
       <c r="O14">
-        <v>0.7423691870207686</v>
+        <v>0.863617428561108</v>
       </c>
       <c r="P14">
-        <v>0.7423691870207685</v>
+        <v>0.8636174285611079</v>
       </c>
       <c r="Q14">
-        <v>220.1557918348475</v>
+        <v>331.8648485474545</v>
       </c>
       <c r="R14">
-        <v>1981.402126513628</v>
+        <v>2986.78363692709</v>
       </c>
       <c r="S14">
-        <v>0.01042463153157698</v>
+        <v>0.0093704099570552</v>
       </c>
       <c r="T14">
-        <v>0.01042463153157698</v>
+        <v>0.009370409957055199</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.610639333333333</v>
+        <v>1.301204666666667</v>
       </c>
       <c r="H15">
-        <v>4.831917999999999</v>
+        <v>3.903614</v>
       </c>
       <c r="I15">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="J15">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.8952453333333333</v>
+        <v>0.8952453333333334</v>
       </c>
       <c r="N15">
         <v>2.685736</v>
       </c>
       <c r="O15">
-        <v>0.004862170554817893</v>
+        <v>0.003031431940796009</v>
       </c>
       <c r="P15">
-        <v>0.004862170554817892</v>
+        <v>0.003031431940796009</v>
       </c>
       <c r="Q15">
-        <v>1.441917346849777</v>
+        <v>1.164897405544889</v>
       </c>
       <c r="R15">
-        <v>12.977256121648</v>
+        <v>10.484076649904</v>
       </c>
       <c r="S15">
-        <v>6.827645511672041E-05</v>
+        <v>3.289160119139507E-05</v>
       </c>
       <c r="T15">
-        <v>6.827645511672041E-05</v>
+        <v>3.289160119139507E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.610639333333333</v>
+        <v>1.301204666666667</v>
       </c>
       <c r="H16">
-        <v>4.831917999999999</v>
+        <v>3.903614</v>
       </c>
       <c r="I16">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="J16">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.903320333333333</v>
+        <v>7.050555333333333</v>
       </c>
       <c r="N16">
-        <v>14.709961</v>
+        <v>21.151666</v>
       </c>
       <c r="O16">
-        <v>0.02663044291647413</v>
+        <v>0.02387421396349043</v>
       </c>
       <c r="P16">
-        <v>0.02663044291647413</v>
+        <v>0.02387421396349043</v>
       </c>
       <c r="Q16">
-        <v>7.897480592799776</v>
+        <v>9.174215502324889</v>
       </c>
       <c r="R16">
-        <v>71.07732533519798</v>
+        <v>82.567939520924</v>
       </c>
       <c r="S16">
-        <v>0.0003739548458914829</v>
+        <v>0.0002590396683090187</v>
       </c>
       <c r="T16">
-        <v>0.0003739548458914829</v>
+        <v>0.0002590396683090186</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.610639333333333</v>
+        <v>1.301204666666667</v>
       </c>
       <c r="H17">
-        <v>4.831917999999999</v>
+        <v>3.903614</v>
       </c>
       <c r="I17">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="J17">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>41.63761133333333</v>
+        <v>32.33082866666666</v>
       </c>
       <c r="N17">
-        <v>124.912834</v>
+        <v>96.99248599999999</v>
       </c>
       <c r="O17">
-        <v>0.2261381995079395</v>
+        <v>0.1094769255346056</v>
       </c>
       <c r="P17">
-        <v>0.2261381995079395</v>
+        <v>0.1094769255346056</v>
       </c>
       <c r="Q17">
-        <v>67.06317455951243</v>
+        <v>42.06902513826711</v>
       </c>
       <c r="R17">
-        <v>603.5685710356119</v>
+        <v>378.6212262444039</v>
       </c>
       <c r="S17">
-        <v>0.003175518928183316</v>
+        <v>0.001187845033195358</v>
       </c>
       <c r="T17">
-        <v>0.003175518928183317</v>
+        <v>0.001187845033195358</v>
       </c>
     </row>
   </sheetData>
